--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_2_31.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55380.69060575703</v>
+        <v>3879504.071600989</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55380.69060575703</v>
+        <v>3879504.071600989</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494365305.884843</v>
+        <v>57188727.42660645</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13250.89670633727</v>
+        <v>1261868.128012885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26305.45820166781</v>
+        <v>2489760.742337164</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39360.01969699835</v>
+        <v>3717653.356661445</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55014.39428732314</v>
+        <v>4741863.708255752</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69444.1092853804</v>
+        <v>5894901.682673111</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83873.82428343766</v>
+        <v>7047939.657090461</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98303.53928149499</v>
+        <v>8200977.631507804</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112733.2542795523</v>
+        <v>9354015.605925152</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128387.6288698786</v>
+        <v>10378225.95751932</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142817.3438679329</v>
+        <v>11531263.93193702</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157233.4209415156</v>
+        <v>12685383.0732552</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171649.4980150983</v>
+        <v>13839502.21457339</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186065.575088681</v>
+        <v>14993621.35589158</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200495.2900867369</v>
+        <v>16146659.33030911</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217957.2313730696</v>
+        <v>16939358.14062842</v>
       </c>
     </row>
   </sheetData>
